--- a/data/vinfailure_stop.xlsx
+++ b/data/vinfailure_stop.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0x02:0xfd:0x00:0x05:0x00:0x00:0x00:0x07:0x0e:0x00:0x00:0x00:0x00:0x00:0x00</t>
+          <t>0x02:0xFD:0x00:0x05:0x00:0x00:0x00:0x07:0x0E:0x00:0x00:0x00:0x00:0x00:0x00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0x02:0xfd:0x00:0x06:0x00:0x00:0x00:0x0d:0x0e:0x00:0xe0:0x00:0x10:0x00:0x00:0x00:0x00:0x00:0x00:0x00:0x00</t>
+          <t>0x02:0xFD:0x00:0x06:0x00:0x00:0x00:0x0D:0x0E:0x00:0xE0:0x00:0x10:0x00:0x00:0x00:0x00:0x00:0x00:0x00:0x00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0x02:0xfd:0x00:0x01:0x00:0x00:0x00:0x00</t>
+          <t>0x02:0xFD:0x00:0x01:0x00:0x00:0x00:0x00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0x02:0xfd:0x00:0x04:0x00:0x00:0x00:0x21:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0x38:0x39:0x30:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0xe0:0x00:0xe1:0xe2:0xe3:0xe4:0xe5:0xe6:0xa1:0xa2:0xa3:0xa4:0xa5:0xa6:0x00:0x00</t>
+          <t>0x02:0xFD:0x00:0x04:0x00:0x00:0x00:0x21:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0x38:0x39:0x30:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0xE0:0x00:0xE1:0xE2:0xE3:0xE4:0xE5:0xE6:0xA1:0xA2:0xA3:0xA4:0xA5:0xA6:0x00:0x00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0x0e:0x00:0x10:0x32:0x3e:0x00</t>
+          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x06:0x0E:0x00:0x10:0x32:0x3E:0x00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0x3e:0x00</t>
+          <t>0x3E:0x00</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0x10:0x32:0x0e:0x00:0x00</t>
+          <t>0x02:0xFD:0x80:0x02:0x00:0x00:0x00:0x05:0x10:0x32:0x0E:0x00:0x00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0x10:0x32:0x0e:0x00:0x7e:0x00</t>
+          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x06:0x10:0x32:0x0E:0x00:0x7E:0x00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0x7e:0x00</t>
+          <t>0x7E:0x00</t>
         </is>
       </c>
     </row>
@@ -770,12 +770,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0x0e:0x00:0x10:0x32:0x3e:0x80</t>
+          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x06:0x0E:0x00:0x10:0x32:0x3E:0x80</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0x3e:0x80</t>
+          <t>0x3E:0x80</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0x10:0x32:0x0e:0x00:0x00</t>
+          <t>0x02:0xFD:0x80:0x02:0x00:0x00:0x00:0x05:0x10:0x32:0x0E:0x00:0x00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0x10:0x32:0x0e:0x00:0x7e:0x80</t>
+          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x06:0x10:0x32:0x0E:0x00:0x7E:0x80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0x7e:0x80</t>
+          <t>0x7E:0x80</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x07:0x0e:0x00:0x10:0x32:0x22:0xf1:0x90</t>
+          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x07:0x0E:0x00:0x10:0x32:0x22:0xF1:0x90</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0x22:0xf1:0x90</t>
+          <t>0x22:0xF1:0x90</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0x10:0x32:0x0e:0x00:0x00</t>
+          <t>0x02:0xFD:0x80:0x02:0x00:0x00:0x00:0x05:0x10:0x32:0x0E:0x00:0x00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -960,12 +960,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x07:0x10:0x32:0x0e:0x00:0x7f:0x10:0x10</t>
+          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x07:0x10:0x32:0x0E:0x00:0x7F:0x10:0x10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0x7f:0x10:0x10</t>
+          <t>0x7F:0x10:0x10</t>
         </is>
       </c>
     </row>

--- a/data/vinfailure_stop.xlsx
+++ b/data/vinfailure_stop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,26 +471,31 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>uds</t>
+          <t>sid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reply</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-12 16:46:01</t>
+          <t>2024-09-12 16:46:02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DOIP</t>
+          <t>UDS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,99 +504,114 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0x1032</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0x02:0xFD:0x00:0x05:0x00:0x00:0x00:0x07:0x0E:0x00:0x00:0x00:0x00:0x00:0x00</t>
+          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x06:0x0E:0x00:0x10:0x32:0x3E:0x00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0x3E</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0x00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-09-12 16:46:01</t>
+          <t>2024-09-12 16:46:02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DOIP</t>
+          <t>UDS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0xe000</t>
+          <t>0x1032</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0x0e00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0x02:0xFD:0x00:0x06:0x00:0x00:0x00:0x0D:0x0E:0x00:0xE0:0x00:0x10:0x00:0x00:0x00:0x00:0x00:0x00:0x00:0x00</t>
+          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x06:0x10:0x32:0x0E:0x00:0x7E:0x00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0x3E</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0x01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-09-12 16:46:01</t>
+          <t>2024-09-12 16:46:02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DOIP</t>
+          <t>UDS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0x0e00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0x1032</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0x02:0xFD:0x00:0x01:0x00:0x00:0x00:0x00</t>
+          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x06:0x0E:0x00:0x10:0x32:0x3E:0x80</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0x3E</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0x00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -600,36 +620,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DOIP</t>
+          <t>UDS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0x1032</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0x0e00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0x02:0xFD:0x00:0x04:0x00:0x00:0x00:0x21:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0x38:0x39:0x30:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0xE0:0x00:0xE1:0xE2:0xE3:0xE4:0xE5:0xE6:0xA1:0xA2:0xA3:0xA4:0xA5:0xA6:0x00:0x00</t>
+          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x06:0x10:0x32:0x0E:0x00:0x7E:0x80</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0x3E</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0x01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -642,7 +667,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -656,18 +681,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x06:0x0E:0x00:0x10:0x32:0x3E:0x00</t>
+          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x07:0x0E:0x00:0x10:0x32:0x22:0xF1:0x90</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0x3E:0x00</t>
+          <t>0x22</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0x00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -676,11 +706,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DOIP</t>
+          <t>UDS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -694,278 +724,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0x02:0xFD:0x80:0x02:0x00:0x00:0x00:0x05:0x10:0x32:0x0E:0x00:0x00</t>
+          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x07:0x10:0x32:0x0E:0x00:0x7F:0x10:0x10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>148</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2024-09-12 16:46:02</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>UDS</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>80</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x1032</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0x0e00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x06:0x10:0x32:0x0E:0x00:0x7E:0x00</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0x7E:0x00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>150</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2024-09-12 16:46:02</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>UDS</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>80</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x0e00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0x1032</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x06:0x0E:0x00:0x10:0x32:0x3E:0x80</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0x3E:0x80</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>151</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2024-09-12 16:46:02</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>DOIP</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>79</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x1032</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0x0e00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0x02:0xFD:0x80:0x02:0x00:0x00:0x00:0x05:0x10:0x32:0x0E:0x00:0x00</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>154</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2024-09-12 16:46:02</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>UDS</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>80</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x1032</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0x0e00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x06:0x10:0x32:0x0E:0x00:0x7E:0x80</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0x7E:0x80</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>156</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2024-09-12 16:46:02</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>UDS</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>81</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x0e00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0x1032</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x07:0x0E:0x00:0x10:0x32:0x22:0xF1:0x90</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0x22:0xF1:0x90</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>158</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2024-09-12 16:46:02</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>DOIP</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>79</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x1032</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0x0e00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0x02:0xFD:0x80:0x02:0x00:0x00:0x00:0x05:0x10:0x32:0x0E:0x00:0x00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>162</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2024-09-12 16:46:02</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>UDS</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>81</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x1032</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0x0e00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0x02:0xFD:0x80:0x01:0x00:0x00:0x00:0x07:0x10:0x32:0x0E:0x00:0x7F:0x10:0x10</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0x7F:0x10:0x10</t>
+          <t>0x3F</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0x01</t>
         </is>
       </c>
     </row>
